--- a/2018/general/Motley TX General Election Tally Sheet.xlsx
+++ b/2018/general/Motley TX General Election Tally Sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Election\Election 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekwillis/code/openelections-sources-tx/2018/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793BA60C-623F-443A-8712-191F1F46AA3A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA01483D-337A-9844-8600-D1BB4AA7731F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="7590" xr2:uid="{A0FF830E-3923-415B-8C9D-E4660189F0DD}"/>
+    <workbookView xWindow="1720" yWindow="1720" windowWidth="26200" windowHeight="16240" xr2:uid="{A0FF830E-3923-415B-8C9D-E4660189F0DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -289,7 +289,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -472,14 +472,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,11 +498,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,16 +519,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,26 +838,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F461EDA-7D18-4E81-8D23-32EE390FC0E9}">
   <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" customWidth="1"/>
-    <col min="10" max="18" width="9.28515625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="3" customWidth="1"/>
+    <col min="10" max="18" width="9.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+    <row r="1" spans="1:18" ht="26" thickBot="1">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
@@ -879,28 +872,28 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="22">
         <v>43410</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-    </row>
-    <row r="3" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+    </row>
+    <row r="3" spans="1:18" ht="26" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="M3" s="21" t="s">
         <v>3</v>
       </c>
@@ -910,50 +903,50 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="M4" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-    </row>
-    <row r="5" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="M4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-    </row>
-    <row r="6" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+    </row>
+    <row r="6" spans="1:18" ht="26" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5">
@@ -971,7 +964,7 @@
       <c r="I6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="5">
         <v>1</v>
       </c>
@@ -995,1472 +988,1443 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:18" ht="21" thickBot="1">
+      <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>105</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>28</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>9</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>51</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>51</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>57</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <f>SUM(C7:H7)</f>
         <v>301</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>38</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <v>32</v>
       </c>
-      <c r="M7" s="13">
-        <v>5</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="M7" s="10">
+        <v>5</v>
+      </c>
+      <c r="N7" s="10">
         <v>65</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <v>25</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="10">
         <v>17</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="12">
         <f>SUM(K7:P7)</f>
         <v>182</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="11">
         <f>SUM(I7,Q7)</f>
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:18" ht="21" thickBot="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
         <v>7</v>
       </c>
-      <c r="G8" s="12">
-        <v>5</v>
-      </c>
-      <c r="H8" s="12">
-        <v>5</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="9">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" ref="I8:I37" si="0">SUM(C8:H8)</f>
         <v>24</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="12">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12">
-        <v>2</v>
-      </c>
-      <c r="M8" s="12">
-        <v>0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>5</v>
-      </c>
-      <c r="O8" s="12">
-        <v>2</v>
-      </c>
-      <c r="P8" s="12">
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <v>5</v>
+      </c>
+      <c r="O8" s="9">
+        <v>2</v>
+      </c>
+      <c r="P8" s="9">
         <v>6</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="12">
         <f t="shared" ref="Q8:Q37" si="1">SUM(K8:P8)</f>
         <v>16</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="11">
         <f t="shared" ref="R8:R37" si="2">SUM(I8,Q8)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:18" ht="21" thickBot="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>2</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15">
+      <c r="K9" s="9">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="21" thickBot="1">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="17"/>
+      <c r="I10" s="12"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="21" thickBot="1">
+      <c r="A11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>104</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>27</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>9</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <v>52</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>51</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <v>58</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>301</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <v>39</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="9">
         <v>30</v>
       </c>
-      <c r="M11" s="12">
-        <v>5</v>
-      </c>
-      <c r="N11" s="12">
+      <c r="M11" s="9">
+        <v>5</v>
+      </c>
+      <c r="N11" s="9">
         <v>65</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="9">
         <v>24</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="9">
         <v>16</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="12">
         <f t="shared" si="1"/>
         <v>179</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="11">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:18" ht="21" thickBot="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
         <v>7</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>4</v>
       </c>
-      <c r="H12" s="12">
-        <v>5</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="H12" s="9">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="12">
-        <v>2</v>
-      </c>
-      <c r="L12" s="12">
-        <v>2</v>
-      </c>
-      <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
+      <c r="K12" s="9">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
         <v>3</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="9">
         <v>3</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P12" s="9">
         <v>6</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="12">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="11">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="7" t="s">
+    <row r="13" spans="1:18" ht="21" thickBot="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="15">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="12">
-        <v>0</v>
-      </c>
-      <c r="L13" s="12">
-        <v>1</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
-        <v>2</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="21" thickBot="1">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="17"/>
+      <c r="I14" s="12"/>
+      <c r="K14" s="14"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:18" ht="21" thickBot="1">
+      <c r="A15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>104</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>28</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>9</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="9">
         <v>52</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="9">
         <v>54</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="9">
         <v>59</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="12">
+      <c r="K15" s="9">
         <v>39</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12">
-        <v>5</v>
-      </c>
-      <c r="N15" s="12">
+      <c r="L15" s="9">
+        <v>31</v>
+      </c>
+      <c r="M15" s="9">
+        <v>5</v>
+      </c>
+      <c r="N15" s="9">
         <v>66</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="9">
         <v>27</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="9">
         <v>15</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="12">
         <f t="shared" si="1"/>
-        <v>152</v>
-      </c>
-      <c r="R15" s="14">
+        <v>183</v>
+      </c>
+      <c r="R15" s="11">
         <f t="shared" si="2"/>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" thickBot="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
         <v>7</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <v>3</v>
       </c>
-      <c r="H16" s="12">
-        <v>5</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="12">
-        <v>2</v>
-      </c>
-      <c r="L16" s="12">
-        <v>2</v>
-      </c>
-      <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="12">
+      <c r="K16" s="9">
+        <v>2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>2</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
         <v>3</v>
       </c>
-      <c r="O16" s="12">
-        <v>1</v>
-      </c>
-      <c r="P16" s="12">
+      <c r="O16" s="9">
+        <v>1</v>
+      </c>
+      <c r="P16" s="9">
         <v>7</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="11">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="1:18" ht="21" thickBot="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="12">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="12">
-        <v>2</v>
-      </c>
-      <c r="O17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="21" thickBot="1">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="17"/>
+      <c r="I18" s="12"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="14"/>
-    </row>
-    <row r="19" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:18" ht="21" thickBot="1">
+      <c r="A19" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>97</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>24</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="9">
         <v>9</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="9">
         <v>49</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="9">
         <v>57</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="9">
         <v>54</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <v>31</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="9">
         <v>28</v>
       </c>
-      <c r="M19" s="12">
-        <v>5</v>
-      </c>
-      <c r="N19" s="12">
+      <c r="M19" s="9">
+        <v>5</v>
+      </c>
+      <c r="N19" s="9">
         <v>62</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="9">
         <v>24</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="9">
         <v>15</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="12">
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="11">
         <f t="shared" si="2"/>
         <v>455</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="1:18" ht="21" thickBot="1">
+      <c r="A20" s="20"/>
+      <c r="B20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="12">
-        <v>5</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9">
         <v>9</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
         <v>8</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="9">
         <v>7</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="9">
         <v>8</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="12">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="12">
+      <c r="K20" s="9">
         <v>10</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="9">
         <v>3</v>
       </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="12">
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
         <v>7</v>
       </c>
-      <c r="O20" s="12">
+      <c r="O20" s="9">
         <v>4</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P20" s="9">
         <v>8</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="12">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="11">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:18" ht="21" thickBot="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="12">
-        <v>1</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="12">
-        <v>2</v>
-      </c>
-      <c r="G21" s="12">
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
         <v>3</v>
       </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="12">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12">
-        <v>2</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="15">
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2</v>
+      </c>
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="11">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="21" thickBot="1">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="17"/>
+      <c r="I22" s="12"/>
+      <c r="K22" s="14"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" ht="21" thickBot="1">
+      <c r="A23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="9">
         <v>99</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="9">
         <v>26</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="9">
         <v>9</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="9">
         <v>50</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="9">
         <v>51</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="9">
         <v>55</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I23" s="12">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="12">
+      <c r="K23" s="9">
         <v>37</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="9">
         <v>31</v>
       </c>
-      <c r="M23" s="12">
-        <v>5</v>
-      </c>
-      <c r="N23" s="12">
+      <c r="M23" s="9">
+        <v>5</v>
+      </c>
+      <c r="N23" s="9">
         <v>64</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="9">
         <v>25</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="9">
         <v>16</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="12">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="11">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:18" ht="21" thickBot="1">
+      <c r="A24" s="20"/>
+      <c r="B24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="9">
         <v>4</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>6</v>
       </c>
-      <c r="E24" s="12">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
         <v>7</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="9">
         <v>3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="9">
         <v>7</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="12">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="12">
+      <c r="K24" s="9">
         <v>3</v>
       </c>
-      <c r="L24" s="12">
-        <v>2</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
+      <c r="L24" s="9">
+        <v>2</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
         <v>3</v>
       </c>
-      <c r="O24" s="12">
-        <v>2</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="O24" s="9">
+        <v>2</v>
+      </c>
+      <c r="P24" s="9">
         <v>7</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="12">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="11">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:18" ht="21" thickBot="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="12">
-        <v>2</v>
-      </c>
-      <c r="G25" s="12">
-        <v>2</v>
-      </c>
-      <c r="H25" s="12">
-        <v>0</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>2</v>
+      </c>
+      <c r="G25" s="9">
+        <v>2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="12">
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <v>2</v>
-      </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="15">
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>2</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="11">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="21" thickBot="1">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="17"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="14"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" ht="21" thickBot="1">
+      <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="9">
         <v>101</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>27</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="9">
         <v>8</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="9">
         <v>51</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="9">
         <v>49</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="9">
         <v>58</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="12">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="12">
+      <c r="K27" s="9">
         <v>40</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="9">
         <v>32</v>
       </c>
-      <c r="M27" s="12">
-        <v>5</v>
-      </c>
-      <c r="N27" s="12">
+      <c r="M27" s="9">
+        <v>5</v>
+      </c>
+      <c r="N27" s="9">
         <v>65</v>
       </c>
-      <c r="O27" s="12">
+      <c r="O27" s="9">
         <v>25</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P27" s="9">
         <v>16</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="12">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="R27" s="14">
+      <c r="R27" s="11">
         <f t="shared" si="2"/>
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:18" ht="21" thickBot="1">
+      <c r="A28" s="19"/>
+      <c r="B28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>5</v>
-      </c>
-      <c r="E28" s="12">
-        <v>1</v>
-      </c>
-      <c r="F28" s="12">
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>5</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
         <v>7</v>
       </c>
-      <c r="G28" s="12">
-        <v>5</v>
-      </c>
-      <c r="H28" s="12">
-        <v>5</v>
-      </c>
-      <c r="I28" s="15">
+      <c r="G28" s="9">
+        <v>5</v>
+      </c>
+      <c r="H28" s="9">
+        <v>5</v>
+      </c>
+      <c r="I28" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="12">
-        <v>1</v>
-      </c>
-      <c r="L28" s="12">
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9">
         <v>3</v>
       </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="12">
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9">
         <v>3</v>
       </c>
-      <c r="O28" s="12">
-        <v>2</v>
-      </c>
-      <c r="P28" s="12">
+      <c r="O28" s="9">
+        <v>2</v>
+      </c>
+      <c r="P28" s="9">
         <v>6</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="R28" s="14">
+      <c r="R28" s="11">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:18" ht="21" thickBot="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="12">
-        <v>1</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>2</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>2</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="12">
-        <v>0</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <v>0</v>
-      </c>
-      <c r="N29" s="12">
-        <v>1</v>
-      </c>
-      <c r="O29" s="12">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="15">
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R29" s="14">
+      <c r="R29" s="11">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="21" thickBot="1">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="17"/>
+      <c r="I30" s="12"/>
+      <c r="K30" s="14"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="14"/>
-    </row>
-    <row r="31" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:18" ht="21" thickBot="1">
+      <c r="A31" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="9">
         <v>103</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="9">
         <v>27</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="9">
         <v>9</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="9">
         <v>48</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="9">
         <v>44</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="9">
         <v>59</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="12">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="12">
+      <c r="K31" s="9">
         <v>39</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="9">
         <v>30</v>
       </c>
-      <c r="M31" s="12">
-        <v>5</v>
-      </c>
-      <c r="N31" s="12">
+      <c r="M31" s="9">
+        <v>5</v>
+      </c>
+      <c r="N31" s="9">
         <v>64</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="9">
         <v>27</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="9">
         <v>17</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="12">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="R31" s="14">
+      <c r="R31" s="11">
         <f t="shared" si="2"/>
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="7" t="s">
+    <row r="32" spans="1:18" ht="21" thickBot="1">
+      <c r="A32" s="19"/>
+      <c r="B32" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="12">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C32" s="9">
+        <v>1</v>
+      </c>
+      <c r="D32" s="9">
         <v>4</v>
       </c>
-      <c r="E32" s="12">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9">
         <v>8</v>
       </c>
-      <c r="G32" s="12">
-        <v>5</v>
-      </c>
-      <c r="H32" s="12">
-        <v>5</v>
-      </c>
-      <c r="I32" s="15">
+      <c r="G32" s="9">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
+      <c r="I32" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="12">
-        <v>1</v>
-      </c>
-      <c r="L32" s="12">
-        <v>2</v>
-      </c>
-      <c r="M32" s="12">
-        <v>0</v>
-      </c>
-      <c r="N32" s="12">
+      <c r="K32" s="9">
+        <v>1</v>
+      </c>
+      <c r="L32" s="9">
+        <v>2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9">
         <v>3</v>
       </c>
-      <c r="O32" s="12">
-        <v>1</v>
-      </c>
-      <c r="P32" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="15">
+      <c r="O32" s="9">
+        <v>1</v>
+      </c>
+      <c r="P32" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="R32" s="14">
+      <c r="R32" s="11">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="7" t="s">
+    <row r="33" spans="1:18" ht="21" thickBot="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="12">
-        <v>1</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="F33" s="12">
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
         <v>3</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="9">
         <v>4</v>
       </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="15">
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="12">
-        <v>0</v>
-      </c>
-      <c r="L33" s="12">
-        <v>0</v>
-      </c>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12">
-        <v>2</v>
-      </c>
-      <c r="O33" s="12">
-        <v>0</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="15">
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9">
+        <v>2</v>
+      </c>
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R33" s="14">
+      <c r="R33" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="21" thickBot="1">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="17"/>
+      <c r="I34" s="12"/>
+      <c r="K34" s="14"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="15"/>
-      <c r="R34" s="14"/>
-    </row>
-    <row r="35" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="Q34" s="12"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" ht="21" thickBot="1">
+      <c r="A35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="9">
         <v>98</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="9">
         <v>27</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <v>9</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="9">
         <v>51</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="9">
         <v>48</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="9">
         <v>58</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="12">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="12">
+      <c r="K35" s="9">
         <v>38</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="9">
         <v>30</v>
       </c>
-      <c r="M35" s="12">
-        <v>5</v>
-      </c>
-      <c r="N35" s="12">
+      <c r="M35" s="9">
+        <v>5</v>
+      </c>
+      <c r="N35" s="9">
         <v>65</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="9">
         <v>25</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="9">
         <v>14</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="12">
         <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="R35" s="14">
+      <c r="R35" s="11">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="7" t="s">
+    <row r="36" spans="1:18" ht="21" thickBot="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="9">
         <v>3</v>
       </c>
-      <c r="D36" s="12">
-        <v>5</v>
-      </c>
-      <c r="E36" s="12">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12">
+      <c r="D36" s="9">
+        <v>5</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9">
         <v>7</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="9">
         <v>6</v>
       </c>
-      <c r="H36" s="12">
-        <v>5</v>
-      </c>
-      <c r="I36" s="15">
+      <c r="H36" s="9">
+        <v>5</v>
+      </c>
+      <c r="I36" s="12">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="12">
+      <c r="K36" s="9">
         <v>3</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="9">
         <v>3</v>
       </c>
-      <c r="M36" s="12">
-        <v>0</v>
-      </c>
-      <c r="N36" s="12">
-        <v>5</v>
-      </c>
-      <c r="O36" s="12">
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <v>5</v>
+      </c>
+      <c r="O36" s="9">
         <v>3</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="9">
         <v>7</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="R36" s="14">
+      <c r="R36" s="11">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="1:18">
+      <c r="A37" s="20"/>
+      <c r="B37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="12">
-        <v>0</v>
-      </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12">
-        <v>1</v>
-      </c>
-      <c r="H37" s="12">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15">
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="12">
-        <v>0</v>
-      </c>
-      <c r="L37" s="12">
-        <v>1</v>
-      </c>
-      <c r="M37" s="12">
-        <v>0</v>
-      </c>
-      <c r="N37" s="12">
-        <v>1</v>
-      </c>
-      <c r="O37" s="12">
-        <v>0</v>
-      </c>
-      <c r="P37" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9">
+        <v>1</v>
+      </c>
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R37" s="14">
+      <c r="R37" s="11">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+    <row r="39" spans="1:18" ht="26" thickBot="1">
+      <c r="A39" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="21" t="s">
         <v>2</v>
       </c>
@@ -2475,28 +2439,28 @@
       <c r="Q39" s="21"/>
       <c r="R39" s="21"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
+    <row r="40" spans="1:18">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="22">
         <v>43410</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
-      <c r="M40" s="19" t="s">
+      <c r="M40" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-    </row>
-    <row r="41" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+    </row>
+    <row r="41" spans="1:18" ht="26" thickBot="1">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
       <c r="M41" s="21" t="s">
         <v>3</v>
       </c>
@@ -2506,50 +2470,50 @@
       <c r="Q41" s="21"/>
       <c r="R41" s="21"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="M42" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-    </row>
-    <row r="43" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="M42" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+    </row>
+    <row r="43" spans="1:18" ht="25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="23">
+      <c r="K43" s="20">
         <v>31</v>
       </c>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-    </row>
-    <row r="44" spans="1:18" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+    </row>
+    <row r="44" spans="1:18" ht="26" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5">
         <v>1</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>2</v>
       </c>
       <c r="E44" s="5">
@@ -2567,7 +2531,7 @@
       <c r="I44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J44" s="8"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="5">
         <v>1</v>
       </c>
@@ -2591,1711 +2555,1710 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+    <row r="45" spans="1:18" ht="21" thickBot="1">
+      <c r="A45" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="9">
         <v>101</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="9">
         <v>23</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="9">
         <v>9</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="9">
         <v>52</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G45" s="9">
         <v>49</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="9">
         <v>58</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="12">
         <f>SUM(C45:H45)</f>
         <v>292</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="18">
+      <c r="J45" s="7"/>
+      <c r="K45" s="15">
         <v>40</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="9">
         <v>31</v>
       </c>
-      <c r="M45" s="12">
-        <v>5</v>
-      </c>
-      <c r="N45" s="12">
+      <c r="M45" s="9">
+        <v>5</v>
+      </c>
+      <c r="N45" s="9">
         <v>62</v>
       </c>
-      <c r="O45" s="12">
+      <c r="O45" s="9">
         <v>26</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P45" s="9">
         <v>15</v>
       </c>
-      <c r="Q45" s="15">
+      <c r="Q45" s="12">
         <f>SUM(K45:P45)</f>
         <v>179</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R45" s="13">
         <f>SUM(I45,Q45)</f>
         <v>471</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="7" t="s">
+    <row r="46" spans="1:18" ht="21" thickBot="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="12">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
         <v>6</v>
       </c>
-      <c r="E46" s="12">
-        <v>1</v>
-      </c>
-      <c r="F46" s="12">
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="9">
         <v>7</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G46" s="9">
         <v>6</v>
       </c>
-      <c r="H46" s="12">
-        <v>5</v>
-      </c>
-      <c r="I46" s="15">
+      <c r="H46" s="9">
+        <v>5</v>
+      </c>
+      <c r="I46" s="12">
         <f t="shared" ref="I46:I86" si="3">SUM(C46:H46)</f>
         <v>25</v>
       </c>
-      <c r="J46" s="10"/>
-      <c r="K46" s="18">
-        <v>1</v>
-      </c>
-      <c r="L46" s="12">
-        <v>2</v>
-      </c>
-      <c r="M46" s="12">
-        <v>0</v>
-      </c>
-      <c r="N46" s="12">
-        <v>5</v>
-      </c>
-      <c r="O46" s="12">
-        <v>2</v>
-      </c>
-      <c r="P46" s="12">
+      <c r="J46" s="7"/>
+      <c r="K46" s="15">
+        <v>1</v>
+      </c>
+      <c r="L46" s="9">
+        <v>2</v>
+      </c>
+      <c r="M46" s="9">
+        <v>0</v>
+      </c>
+      <c r="N46" s="9">
+        <v>5</v>
+      </c>
+      <c r="O46" s="9">
+        <v>2</v>
+      </c>
+      <c r="P46" s="9">
         <v>6</v>
       </c>
-      <c r="Q46" s="15">
+      <c r="Q46" s="12">
         <f t="shared" ref="Q46:Q86" si="4">SUM(K46:P46)</f>
         <v>16</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="13">
         <f t="shared" ref="R46:R86" si="5">SUM(I46,Q46)</f>
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="7" t="s">
+    <row r="47" spans="1:18" ht="21" thickBot="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="12">
-        <v>1</v>
-      </c>
-      <c r="D47" s="12">
-        <v>0</v>
-      </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12">
-        <v>0</v>
-      </c>
-      <c r="I47" s="15">
+      <c r="C47" s="9">
+        <v>1</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="12">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J47" s="10"/>
-      <c r="K47" s="18">
-        <v>0</v>
-      </c>
-      <c r="L47" s="12">
-        <v>1</v>
-      </c>
-      <c r="M47" s="12">
-        <v>0</v>
-      </c>
-      <c r="N47" s="12">
+      <c r="J47" s="7"/>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
         <v>3</v>
       </c>
-      <c r="O47" s="12">
-        <v>0</v>
-      </c>
-      <c r="P47" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="15">
+      <c r="O47" s="9">
+        <v>0</v>
+      </c>
+      <c r="P47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R47" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="21" thickBot="1">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="10"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
-      <c r="Q48" s="15"/>
-      <c r="R48" s="16"/>
-    </row>
-    <row r="49" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="20" t="s">
+      <c r="Q48" s="12"/>
+      <c r="R48" s="13"/>
+    </row>
+    <row r="49" spans="1:18" ht="21" thickBot="1">
+      <c r="A49" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="9">
         <v>99</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="9">
         <v>25</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="9">
         <v>8</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="9">
         <v>52</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G49" s="9">
         <v>50</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="9">
         <v>57</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="12">
         <f t="shared" si="3"/>
         <v>291</v>
       </c>
-      <c r="J49" s="10"/>
-      <c r="K49" s="18">
+      <c r="J49" s="7"/>
+      <c r="K49" s="15">
         <v>40</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="9">
         <v>31</v>
       </c>
-      <c r="M49" s="12">
-        <v>5</v>
-      </c>
-      <c r="N49" s="12">
+      <c r="M49" s="9">
+        <v>5</v>
+      </c>
+      <c r="N49" s="9">
         <v>66</v>
       </c>
-      <c r="O49" s="12">
+      <c r="O49" s="9">
         <v>26</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P49" s="9">
         <v>14</v>
       </c>
-      <c r="Q49" s="15">
+      <c r="Q49" s="12">
         <f t="shared" si="4"/>
         <v>182</v>
       </c>
-      <c r="R49" s="16">
+      <c r="R49" s="13">
         <f t="shared" si="5"/>
         <v>473</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="7" t="s">
+    <row r="50" spans="1:18" ht="21" thickBot="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="12">
-        <v>2</v>
-      </c>
-      <c r="D50" s="12">
-        <v>5</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="C50" s="9">
+        <v>2</v>
+      </c>
+      <c r="D50" s="9">
+        <v>5</v>
+      </c>
+      <c r="E50" s="9">
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
         <v>7</v>
       </c>
-      <c r="G50" s="12">
-        <v>5</v>
-      </c>
-      <c r="H50" s="12">
+      <c r="G50" s="9">
+        <v>5</v>
+      </c>
+      <c r="H50" s="9">
         <v>6</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="12">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="18">
-        <v>1</v>
-      </c>
-      <c r="L50" s="12">
+      <c r="J50" s="7"/>
+      <c r="K50" s="15">
+        <v>1</v>
+      </c>
+      <c r="L50" s="9">
         <v>3</v>
       </c>
-      <c r="M50" s="12">
-        <v>0</v>
-      </c>
-      <c r="N50" s="12">
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
         <v>4</v>
       </c>
-      <c r="O50" s="12">
-        <v>2</v>
-      </c>
-      <c r="P50" s="12">
+      <c r="O50" s="9">
+        <v>2</v>
+      </c>
+      <c r="P50" s="9">
         <v>7</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="12">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="R50" s="16">
+      <c r="R50" s="13">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="21" thickBot="1">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="10"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="7"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
-      <c r="Q51" s="15"/>
-      <c r="R51" s="16"/>
-    </row>
-    <row r="52" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="Q51" s="12"/>
+      <c r="R51" s="13"/>
+    </row>
+    <row r="52" spans="1:18" ht="21" thickBot="1">
+      <c r="A52" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="9">
         <v>96</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="9">
         <v>24</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="9">
         <v>9</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="9">
         <v>52</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="9">
         <v>50</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="9">
         <v>58</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="12">
         <f t="shared" si="3"/>
         <v>289</v>
       </c>
-      <c r="J52" s="10"/>
-      <c r="K52" s="18">
+      <c r="J52" s="7"/>
+      <c r="K52" s="15">
         <v>40</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="9">
         <v>32</v>
       </c>
-      <c r="M52" s="12">
-        <v>5</v>
-      </c>
-      <c r="N52" s="12">
+      <c r="M52" s="9">
+        <v>5</v>
+      </c>
+      <c r="N52" s="9">
         <v>66</v>
       </c>
-      <c r="O52" s="12">
+      <c r="O52" s="9">
         <v>26</v>
       </c>
-      <c r="P52" s="12">
+      <c r="P52" s="9">
         <v>16</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="Q52" s="12">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="R52" s="16">
+      <c r="R52" s="13">
         <f t="shared" si="5"/>
         <v>474</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="7" t="s">
+    <row r="53" spans="1:18" ht="21" thickBot="1">
+      <c r="A53" s="19"/>
+      <c r="B53" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C53" s="9">
         <v>4</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="9">
         <v>6</v>
       </c>
-      <c r="E53" s="12">
-        <v>1</v>
-      </c>
-      <c r="F53" s="12">
+      <c r="E53" s="9">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9">
         <v>7</v>
       </c>
-      <c r="G53" s="12">
-        <v>5</v>
-      </c>
-      <c r="H53" s="12">
-        <v>5</v>
-      </c>
-      <c r="I53" s="15">
+      <c r="G53" s="9">
+        <v>5</v>
+      </c>
+      <c r="H53" s="9">
+        <v>5</v>
+      </c>
+      <c r="I53" s="12">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="J53" s="10"/>
-      <c r="K53" s="18">
-        <v>1</v>
-      </c>
-      <c r="L53" s="12">
-        <v>2</v>
-      </c>
-      <c r="M53" s="12">
-        <v>0</v>
-      </c>
-      <c r="N53" s="12">
+      <c r="J53" s="7"/>
+      <c r="K53" s="15">
+        <v>1</v>
+      </c>
+      <c r="L53" s="9">
+        <v>2</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
         <v>3</v>
       </c>
-      <c r="O53" s="12">
-        <v>2</v>
-      </c>
-      <c r="P53" s="12">
+      <c r="O53" s="9">
+        <v>2</v>
+      </c>
+      <c r="P53" s="9">
         <v>6</v>
       </c>
-      <c r="Q53" s="15">
+      <c r="Q53" s="12">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="R53" s="16">
+      <c r="R53" s="13">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="21" thickBot="1">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="10"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="20" t="s">
+      <c r="Q54" s="12"/>
+      <c r="R54" s="13"/>
+    </row>
+    <row r="55" spans="1:18" ht="21" thickBot="1">
+      <c r="A55" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C55" s="9">
         <v>99</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="9">
         <v>25</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="9">
         <v>9</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="9">
         <v>51</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="9">
         <v>49</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="9">
         <v>57</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="12">
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="J55" s="10"/>
-      <c r="K55" s="18">
+      <c r="J55" s="7"/>
+      <c r="K55" s="15">
         <v>40</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="9">
         <v>32</v>
       </c>
-      <c r="M55" s="12">
-        <v>5</v>
-      </c>
-      <c r="N55" s="12">
+      <c r="M55" s="9">
+        <v>5</v>
+      </c>
+      <c r="N55" s="9">
         <v>66</v>
       </c>
-      <c r="O55" s="12">
+      <c r="O55" s="9">
         <v>26</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P55" s="9">
         <v>14</v>
       </c>
-      <c r="Q55" s="15">
+      <c r="Q55" s="12">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="R55" s="16">
+      <c r="R55" s="13">
         <f t="shared" si="5"/>
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:18" ht="21" thickBot="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="12">
-        <v>2</v>
-      </c>
-      <c r="D56" s="12">
+      <c r="C56" s="9">
+        <v>2</v>
+      </c>
+      <c r="D56" s="9">
         <v>6</v>
       </c>
-      <c r="E56" s="12">
-        <v>1</v>
-      </c>
-      <c r="F56" s="12">
+      <c r="E56" s="9">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9">
         <v>8</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G56" s="9">
         <v>6</v>
       </c>
-      <c r="H56" s="12">
-        <v>5</v>
-      </c>
-      <c r="I56" s="15">
+      <c r="H56" s="9">
+        <v>5</v>
+      </c>
+      <c r="I56" s="12">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="18">
-        <v>1</v>
-      </c>
-      <c r="L56" s="12">
-        <v>2</v>
-      </c>
-      <c r="M56" s="12">
-        <v>0</v>
-      </c>
-      <c r="N56" s="12">
+      <c r="J56" s="7"/>
+      <c r="K56" s="15">
+        <v>1</v>
+      </c>
+      <c r="L56" s="9">
+        <v>2</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9">
         <v>4</v>
       </c>
-      <c r="O56" s="12">
-        <v>2</v>
-      </c>
-      <c r="P56" s="12">
+      <c r="O56" s="9">
+        <v>2</v>
+      </c>
+      <c r="P56" s="9">
         <v>7</v>
       </c>
-      <c r="Q56" s="15">
+      <c r="Q56" s="12">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="R56" s="16">
+      <c r="R56" s="13">
         <f t="shared" si="5"/>
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" ht="21" thickBot="1">
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="10"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="16"/>
-    </row>
-    <row r="58" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+      <c r="Q57" s="12"/>
+      <c r="R57" s="13"/>
+    </row>
+    <row r="58" spans="1:18" ht="21" thickBot="1">
+      <c r="A58" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="12">
+      <c r="C58" s="9">
         <v>98</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="9">
         <v>24</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="9">
         <v>9</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="9">
         <v>52</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G58" s="9">
         <v>49</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="9">
         <v>57</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="12">
         <f t="shared" si="3"/>
         <v>289</v>
       </c>
-      <c r="J58" s="10"/>
-      <c r="K58" s="18">
+      <c r="J58" s="7"/>
+      <c r="K58" s="15">
         <v>40</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="9">
         <v>32</v>
       </c>
-      <c r="M58" s="12">
-        <v>5</v>
-      </c>
-      <c r="N58" s="12">
+      <c r="M58" s="9">
+        <v>5</v>
+      </c>
+      <c r="N58" s="9">
         <v>62</v>
       </c>
-      <c r="O58" s="12">
+      <c r="O58" s="9">
         <v>26</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P58" s="9">
         <v>15</v>
       </c>
-      <c r="Q58" s="15">
+      <c r="Q58" s="12">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="R58" s="16">
+      <c r="R58" s="13">
         <f t="shared" si="5"/>
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="7" t="s">
+    <row r="59" spans="1:18" ht="21" thickBot="1">
+      <c r="A59" s="19"/>
+      <c r="B59" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="12">
-        <v>2</v>
-      </c>
-      <c r="D59" s="12">
+      <c r="C59" s="9">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9">
         <v>6</v>
       </c>
-      <c r="E59" s="12">
-        <v>1</v>
-      </c>
-      <c r="F59" s="12">
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="9">
         <v>7</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G59" s="9">
         <v>6</v>
       </c>
-      <c r="H59" s="12">
-        <v>5</v>
-      </c>
-      <c r="I59" s="15">
+      <c r="H59" s="9">
+        <v>5</v>
+      </c>
+      <c r="I59" s="12">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="18">
-        <v>1</v>
-      </c>
-      <c r="L59" s="12">
-        <v>2</v>
-      </c>
-      <c r="M59" s="12">
-        <v>0</v>
-      </c>
-      <c r="N59" s="12">
+      <c r="J59" s="7"/>
+      <c r="K59" s="15">
+        <v>1</v>
+      </c>
+      <c r="L59" s="9">
+        <v>2</v>
+      </c>
+      <c r="M59" s="9">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9">
         <v>4</v>
       </c>
-      <c r="O59" s="12">
-        <v>2</v>
-      </c>
-      <c r="P59" s="12">
+      <c r="O59" s="9">
+        <v>2</v>
+      </c>
+      <c r="P59" s="9">
         <v>7</v>
       </c>
-      <c r="Q59" s="15">
+      <c r="Q59" s="12">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="R59" s="16">
+      <c r="R59" s="13">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="7" t="s">
+    <row r="60" spans="1:18" ht="21" thickBot="1">
+      <c r="A60" s="19"/>
+      <c r="B60" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="12">
-        <v>1</v>
-      </c>
-      <c r="D60" s="12">
-        <v>1</v>
-      </c>
-      <c r="E60" s="12">
-        <v>0</v>
-      </c>
-      <c r="F60" s="12">
-        <v>0</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-      <c r="H60" s="12">
-        <v>0</v>
-      </c>
-      <c r="I60" s="15">
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9">
+        <v>1</v>
+      </c>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
+      <c r="F60" s="9">
+        <v>0</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9">
+        <v>0</v>
+      </c>
+      <c r="I60" s="12">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="J60" s="10"/>
-      <c r="K60" s="18">
-        <v>0</v>
-      </c>
-      <c r="L60" s="12">
-        <v>0</v>
-      </c>
-      <c r="M60" s="12">
-        <v>0</v>
-      </c>
-      <c r="N60" s="12">
+      <c r="J60" s="7"/>
+      <c r="K60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9">
         <v>3</v>
       </c>
-      <c r="O60" s="12">
-        <v>0</v>
-      </c>
-      <c r="P60" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="15">
+      <c r="O60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="12">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="R60" s="16">
+      <c r="R60" s="13">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="21" thickBot="1">
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="10"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="16"/>
-    </row>
-    <row r="62" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="20" t="s">
+      <c r="Q61" s="12"/>
+      <c r="R61" s="13"/>
+    </row>
+    <row r="62" spans="1:18" ht="21" thickBot="1">
+      <c r="A62" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="12">
+      <c r="C62" s="9">
         <v>102</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="9">
         <v>25</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="9">
         <v>9</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="9">
         <v>52</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G62" s="9">
         <v>50</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="9">
         <v>57</v>
       </c>
-      <c r="I62" s="15">
+      <c r="I62" s="12">
         <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="J62" s="10"/>
-      <c r="K62" s="18">
+      <c r="J62" s="7"/>
+      <c r="K62" s="15">
         <v>40</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="9">
         <v>32</v>
       </c>
-      <c r="M62" s="12">
-        <v>5</v>
-      </c>
-      <c r="N62" s="12">
+      <c r="M62" s="9">
+        <v>5</v>
+      </c>
+      <c r="N62" s="9">
         <v>65</v>
       </c>
-      <c r="O62" s="12">
+      <c r="O62" s="9">
         <v>25</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P62" s="9">
         <v>15</v>
       </c>
-      <c r="Q62" s="15">
+      <c r="Q62" s="12">
         <f t="shared" si="4"/>
         <v>182</v>
       </c>
-      <c r="R62" s="16">
+      <c r="R62" s="13">
         <f t="shared" si="5"/>
         <v>477</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="7" t="s">
+    <row r="63" spans="1:18" ht="21" thickBot="1">
+      <c r="A63" s="19"/>
+      <c r="B63" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="12">
-        <v>1</v>
-      </c>
-      <c r="D63" s="12">
-        <v>5</v>
-      </c>
-      <c r="E63" s="12">
-        <v>1</v>
-      </c>
-      <c r="F63" s="12">
+      <c r="C63" s="9">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9">
+        <v>5</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
         <v>7</v>
       </c>
-      <c r="G63" s="12">
-        <v>5</v>
-      </c>
-      <c r="H63" s="12">
-        <v>5</v>
-      </c>
-      <c r="I63" s="15">
+      <c r="G63" s="9">
+        <v>5</v>
+      </c>
+      <c r="H63" s="9">
+        <v>5</v>
+      </c>
+      <c r="I63" s="12">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="J63" s="10"/>
-      <c r="K63" s="18">
-        <v>1</v>
-      </c>
-      <c r="L63" s="12">
-        <v>2</v>
-      </c>
-      <c r="M63" s="12">
-        <v>0</v>
-      </c>
-      <c r="N63" s="12">
+      <c r="J63" s="7"/>
+      <c r="K63" s="15">
+        <v>1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>2</v>
+      </c>
+      <c r="M63" s="9">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9">
         <v>4</v>
       </c>
-      <c r="O63" s="12">
-        <v>2</v>
-      </c>
-      <c r="P63" s="12">
-        <v>5</v>
-      </c>
-      <c r="Q63" s="15">
+      <c r="O63" s="9">
+        <v>2</v>
+      </c>
+      <c r="P63" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="12">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="R63" s="16">
+      <c r="R63" s="13">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="21" thickBot="1">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="10"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="7"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="16"/>
-    </row>
-    <row r="65" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="20" t="s">
+      <c r="Q64" s="12"/>
+      <c r="R64" s="13"/>
+    </row>
+    <row r="65" spans="1:18" ht="21" thickBot="1">
+      <c r="A65" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="12">
+      <c r="C65" s="9">
         <v>102</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="9">
         <v>24</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="9">
         <v>8</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="9">
         <v>52</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G65" s="9">
         <v>52</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="9">
         <v>57</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="12">
         <f t="shared" si="3"/>
         <v>295</v>
       </c>
-      <c r="J65" s="10"/>
-      <c r="K65" s="18">
+      <c r="J65" s="7"/>
+      <c r="K65" s="15">
         <v>40</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="9">
         <v>32</v>
       </c>
-      <c r="M65" s="12">
-        <v>5</v>
-      </c>
-      <c r="N65" s="12">
+      <c r="M65" s="9">
+        <v>5</v>
+      </c>
+      <c r="N65" s="9">
         <v>64</v>
       </c>
-      <c r="O65" s="12">
+      <c r="O65" s="9">
         <v>27</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P65" s="9">
         <v>15</v>
       </c>
-      <c r="Q65" s="15">
+      <c r="Q65" s="12">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="R65" s="16">
+      <c r="R65" s="13">
         <f t="shared" si="5"/>
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="7" t="s">
+    <row r="66" spans="1:18" ht="21" thickBot="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="12">
-        <v>1</v>
-      </c>
-      <c r="D66" s="12">
+      <c r="C66" s="9">
+        <v>1</v>
+      </c>
+      <c r="D66" s="9">
         <v>3</v>
       </c>
-      <c r="E66" s="12">
-        <v>0</v>
-      </c>
-      <c r="F66" s="12">
-        <v>5</v>
-      </c>
-      <c r="G66" s="12">
-        <v>1</v>
-      </c>
-      <c r="H66" s="12">
-        <v>1</v>
-      </c>
-      <c r="I66" s="15">
+      <c r="E66" s="9">
+        <v>0</v>
+      </c>
+      <c r="F66" s="9">
+        <v>5</v>
+      </c>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1</v>
+      </c>
+      <c r="I66" s="12">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="J66" s="10"/>
-      <c r="K66" s="18">
-        <v>0</v>
-      </c>
-      <c r="L66" s="12">
-        <v>1</v>
-      </c>
-      <c r="M66" s="12">
-        <v>0</v>
-      </c>
-      <c r="N66" s="12">
+      <c r="J66" s="7"/>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <v>1</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
         <v>3</v>
       </c>
-      <c r="O66" s="12">
-        <v>0</v>
-      </c>
-      <c r="P66" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="15">
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="R66" s="16">
+      <c r="R66" s="13">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="21" thickBot="1">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="10"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="7"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="16"/>
-    </row>
-    <row r="68" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q67" s="12"/>
+      <c r="R67" s="13"/>
+    </row>
+    <row r="68" spans="1:18" ht="21" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="9">
         <v>105</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="9">
         <v>25</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="9">
         <v>9</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="9">
         <v>53</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G68" s="9">
         <v>53</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="9">
         <v>57</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="12">
         <f t="shared" si="3"/>
         <v>302</v>
       </c>
-      <c r="J68" s="10"/>
-      <c r="K68" s="18">
+      <c r="J68" s="7"/>
+      <c r="K68" s="15">
         <v>40</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="9">
         <v>31</v>
       </c>
-      <c r="M68" s="12">
-        <v>5</v>
-      </c>
-      <c r="N68" s="12">
+      <c r="M68" s="9">
+        <v>5</v>
+      </c>
+      <c r="N68" s="9">
         <v>66</v>
       </c>
-      <c r="O68" s="12">
+      <c r="O68" s="9">
         <v>28</v>
       </c>
-      <c r="P68" s="12">
+      <c r="P68" s="9">
         <v>17</v>
       </c>
-      <c r="Q68" s="15">
+      <c r="Q68" s="12">
         <f t="shared" si="4"/>
         <v>187</v>
       </c>
-      <c r="R68" s="16">
+      <c r="R68" s="13">
         <f t="shared" si="5"/>
         <v>489</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="21" thickBot="1">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="10"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="7"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="16"/>
-    </row>
-    <row r="70" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q69" s="12"/>
+      <c r="R69" s="13"/>
+    </row>
+    <row r="70" spans="1:18" ht="21" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="9">
         <v>99</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="9">
         <v>24</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12">
+      <c r="E70" s="9"/>
+      <c r="F70" s="9">
         <v>53</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="9">
         <v>52</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="9">
         <v>56</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="12">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="18">
+      <c r="J70" s="7"/>
+      <c r="K70" s="15">
         <v>40</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="9">
         <v>31</v>
       </c>
-      <c r="M70" s="12">
-        <v>5</v>
-      </c>
-      <c r="N70" s="12">
+      <c r="M70" s="9">
+        <v>5</v>
+      </c>
+      <c r="N70" s="9">
         <v>66</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="9">
         <v>27</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="9">
         <v>15</v>
       </c>
-      <c r="Q70" s="15">
+      <c r="Q70" s="12">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="R70" s="16">
+      <c r="R70" s="13">
         <f t="shared" si="5"/>
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="21" thickBot="1">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="10"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="16"/>
-    </row>
-    <row r="72" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q71" s="12"/>
+      <c r="R71" s="13"/>
+    </row>
+    <row r="72" spans="1:18" ht="21" thickBot="1">
       <c r="A72" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="9">
         <v>99</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="9">
         <v>23</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="9">
         <v>8</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="9">
         <v>53</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="9">
         <v>49</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="9">
         <v>56</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="12">
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="J72" s="10"/>
-      <c r="K72" s="18">
+      <c r="J72" s="7"/>
+      <c r="K72" s="15">
         <v>40</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="9">
         <v>30</v>
       </c>
-      <c r="M72" s="12">
-        <v>5</v>
-      </c>
-      <c r="N72" s="12">
+      <c r="M72" s="9">
+        <v>5</v>
+      </c>
+      <c r="N72" s="9">
         <v>66</v>
       </c>
-      <c r="O72" s="12">
+      <c r="O72" s="9">
         <v>27</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P72" s="9">
         <v>15</v>
       </c>
-      <c r="Q72" s="15">
+      <c r="Q72" s="12">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="R72" s="16">
+      <c r="R72" s="13">
         <f t="shared" si="5"/>
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="21" thickBot="1">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="10"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="7"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
-      <c r="Q73" s="15"/>
-      <c r="R73" s="16"/>
-    </row>
-    <row r="74" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q73" s="12"/>
+      <c r="R73" s="13"/>
+    </row>
+    <row r="74" spans="1:18" ht="21" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C74" s="12">
+      <c r="C74" s="9">
         <v>99</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="9">
         <v>24</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="9">
         <v>10</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="9">
         <v>54</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G74" s="9">
         <v>50</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="9">
         <v>55</v>
       </c>
-      <c r="I74" s="15">
+      <c r="I74" s="12">
         <f t="shared" si="3"/>
         <v>292</v>
       </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="18">
+      <c r="J74" s="7"/>
+      <c r="K74" s="15">
         <v>39</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="9">
         <v>31</v>
       </c>
-      <c r="M74" s="12">
-        <v>5</v>
-      </c>
-      <c r="N74" s="12">
+      <c r="M74" s="9">
+        <v>5</v>
+      </c>
+      <c r="N74" s="9">
         <v>66</v>
       </c>
-      <c r="O74" s="12">
+      <c r="O74" s="9">
         <v>27</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P74" s="9">
         <v>16</v>
       </c>
-      <c r="Q74" s="15">
+      <c r="Q74" s="12">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="R74" s="16">
+      <c r="R74" s="13">
         <f t="shared" si="5"/>
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" ht="21" thickBot="1">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="10"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="7"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
-      <c r="Q75" s="15"/>
-      <c r="R75" s="16"/>
-    </row>
-    <row r="76" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q75" s="12"/>
+      <c r="R75" s="13"/>
+    </row>
+    <row r="76" spans="1:18" ht="21" thickBot="1">
       <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="9">
         <v>97</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="9">
         <v>25</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="9">
         <v>10</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="9">
         <v>54</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G76" s="9">
         <v>52</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="9">
         <v>58</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="12">
         <f t="shared" si="3"/>
         <v>296</v>
       </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="18">
+      <c r="J76" s="7"/>
+      <c r="K76" s="15">
         <v>40</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="9">
         <v>31</v>
       </c>
-      <c r="M76" s="12">
-        <v>5</v>
-      </c>
-      <c r="N76" s="12">
+      <c r="M76" s="9">
+        <v>5</v>
+      </c>
+      <c r="N76" s="9">
         <v>68</v>
       </c>
-      <c r="O76" s="12">
+      <c r="O76" s="9">
         <v>24</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P76" s="9">
         <v>16</v>
       </c>
-      <c r="Q76" s="15">
+      <c r="Q76" s="12">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="R76" s="16">
+      <c r="R76" s="13">
         <f t="shared" si="5"/>
         <v>480</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="21" thickBot="1">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="10"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="7"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="16"/>
-    </row>
-    <row r="78" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q77" s="12"/>
+      <c r="R77" s="13"/>
+    </row>
+    <row r="78" spans="1:18" ht="21" thickBot="1">
       <c r="A78" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="9">
         <v>101</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="9">
         <v>27</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="9">
         <v>8</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="9">
         <v>53</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G78" s="9">
         <v>50</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="9">
         <v>60</v>
       </c>
-      <c r="I78" s="15">
+      <c r="I78" s="12">
         <f t="shared" si="3"/>
         <v>299</v>
       </c>
-      <c r="J78" s="10"/>
-      <c r="K78" s="18">
+      <c r="J78" s="7"/>
+      <c r="K78" s="15">
         <v>39</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="9">
         <v>30</v>
       </c>
-      <c r="M78" s="12">
-        <v>5</v>
-      </c>
-      <c r="N78" s="12">
+      <c r="M78" s="9">
+        <v>5</v>
+      </c>
+      <c r="N78" s="9">
         <v>64</v>
       </c>
-      <c r="O78" s="12">
+      <c r="O78" s="9">
         <v>27</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P78" s="9">
         <v>15</v>
       </c>
-      <c r="Q78" s="15">
+      <c r="Q78" s="12">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="R78" s="16">
+      <c r="R78" s="13">
         <f t="shared" si="5"/>
         <v>479</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" ht="21" thickBot="1">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="10"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="16"/>
-    </row>
-    <row r="80" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q79" s="12"/>
+      <c r="R79" s="13"/>
+    </row>
+    <row r="80" spans="1:18" ht="21" thickBot="1">
       <c r="A80" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="9">
         <v>100</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="9">
         <v>26</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="9">
         <v>8</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="9">
         <v>53</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G80" s="9">
         <v>53</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="9">
         <v>60</v>
       </c>
-      <c r="I80" s="15">
+      <c r="I80" s="12">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="J80" s="10"/>
-      <c r="K80" s="18">
+      <c r="J80" s="7"/>
+      <c r="K80" s="15">
         <v>40</v>
       </c>
-      <c r="L80" s="12">
+      <c r="L80" s="9">
         <v>31</v>
       </c>
-      <c r="M80" s="12">
-        <v>5</v>
-      </c>
-      <c r="N80" s="12">
+      <c r="M80" s="9">
+        <v>5</v>
+      </c>
+      <c r="N80" s="9">
         <v>66</v>
       </c>
-      <c r="O80" s="12">
+      <c r="O80" s="9">
         <v>28</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P80" s="9">
         <v>16</v>
       </c>
-      <c r="Q80" s="15">
+      <c r="Q80" s="12">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="R80" s="16">
+      <c r="R80" s="13">
         <f t="shared" si="5"/>
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" ht="21" thickBot="1">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="12"/>
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="16"/>
-    </row>
-    <row r="82" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q81" s="12"/>
+      <c r="R81" s="13"/>
+    </row>
+    <row r="82" spans="1:18" ht="21" thickBot="1">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9">
         <v>27</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9">
         <v>53</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="15">
+      <c r="H82" s="9"/>
+      <c r="I82" s="12">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12">
+      <c r="K82" s="9"/>
+      <c r="L82" s="9">
         <v>33</v>
       </c>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12">
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9">
         <v>28</v>
       </c>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="15">
+      <c r="P82" s="9"/>
+      <c r="Q82" s="12">
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="R82" s="16">
+      <c r="R82" s="13">
         <f t="shared" si="5"/>
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="21" thickBot="1">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-      <c r="I83" s="15"/>
+      <c r="I83" s="12"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="16"/>
-    </row>
-    <row r="84" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q83" s="12"/>
+      <c r="R83" s="13"/>
+    </row>
+    <row r="84" spans="1:18" ht="21" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9">
         <v>53</v>
       </c>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="15">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="12">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12">
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9">
         <v>69</v>
       </c>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="15">
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="12">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
-      <c r="R84" s="16">
+      <c r="R84" s="13">
         <f t="shared" si="5"/>
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="21" thickBot="1">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="12"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="16"/>
-    </row>
-    <row r="86" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q85" s="12"/>
+      <c r="R85" s="13"/>
+    </row>
+    <row r="86" spans="1:18" ht="21" thickBot="1">
       <c r="A86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C86" s="12">
+      <c r="C86" s="9">
         <v>100</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="9">
         <v>27</v>
       </c>
-      <c r="E86" s="12">
+      <c r="E86" s="9">
         <v>9</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="9">
         <v>54</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G86" s="9">
         <v>52</v>
       </c>
-      <c r="H86" s="25">
+      <c r="H86" s="16">
         <v>59</v>
       </c>
-      <c r="I86" s="26">
+      <c r="I86" s="17">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="12">
+      <c r="K86" s="9">
         <v>41</v>
       </c>
-      <c r="L86" s="12">
+      <c r="L86" s="9">
         <v>31</v>
       </c>
-      <c r="M86" s="12">
-        <v>5</v>
-      </c>
-      <c r="N86" s="12">
+      <c r="M86" s="9">
+        <v>5</v>
+      </c>
+      <c r="N86" s="9">
         <v>66</v>
       </c>
-      <c r="O86" s="12">
+      <c r="O86" s="9">
         <v>27</v>
       </c>
-      <c r="P86" s="12">
+      <c r="P86" s="9">
         <v>15</v>
       </c>
-      <c r="Q86" s="15">
+      <c r="Q86" s="12">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="R86" s="16">
+      <c r="R86" s="13">
         <f t="shared" si="5"/>
         <v>486</v>
       </c>
